--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_22.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>930563.7768979712</v>
+        <v>925275.6614031998</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10265048.75650464</v>
+        <v>10263278.81833338</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>70.27759251470657</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>122.4360853739836</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>132.3187953056072</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
@@ -795,7 +795,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>35.13685922632745</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>133.865443574239</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>273.0891598015559</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>203.0747586157703</v>
       </c>
       <c r="D5" t="n">
-        <v>116.9261914447089</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>100.8996439579097</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>42.63833102172983</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>175.6983641828944</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>85.17955375501143</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>339.8107369097485</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>354.7617209972992</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.1045920014104</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>26.24962422171318</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>258.7278615487608</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>65.87543334372788</v>
@@ -1421,7 +1421,7 @@
         <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
         <v>182.1168898750154</v>
@@ -1430,13 +1430,13 @@
         <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>319.8444572927816</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1528,7 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>40.78297506860809</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>8.486485841035886</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>171.1886243209711</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372789</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362801</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T14" t="n">
-        <v>119.9809482424754</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
         <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993875</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177847</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442485</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.67262478666656</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901688</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -1831,7 +1831,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>93.16084888546074</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
@@ -1853,16 +1853,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135895</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093888</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.777769861911</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838888</v>
+        <v>24.17382596574994</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828901</v>
+        <v>52.06849973565006</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308069</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.745882215895</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431733</v>
+        <v>70.57601873167839</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459974</v>
+        <v>55.7231469819608</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643946</v>
+        <v>41.29686219380052</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931857</v>
+        <v>41.22330424667963</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908584</v>
+        <v>42.9727556664469</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147798</v>
+        <v>53.79159358883904</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805002</v>
+        <v>41.14384575541108</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922195</v>
+        <v>18.98356133658301</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367787</v>
+        <v>9.882059701038926</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920519</v>
+        <v>88.00800320656624</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3515,13 +3515,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3563,10 +3563,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1669.311879757299</v>
+        <v>999.032655102558</v>
       </c>
       <c r="C2" t="n">
-        <v>1276.13637826023</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="D2" t="n">
-        <v>1276.13637826023</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="E2" t="n">
-        <v>873.552853376774</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067518</v>
+        <v>188.9627151354664</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475497</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475497</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475497</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475497</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L2" t="n">
-        <v>536.8159511132837</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="M2" t="n">
-        <v>1075.074736123376</v>
+        <v>1058.738054302317</v>
       </c>
       <c r="N2" t="n">
-        <v>1602.886019760838</v>
+        <v>1572.340732912006</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465278</v>
+        <v>2012.380333804334</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.9374095968</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.79005602327</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.79005602327</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="T2" t="n">
-        <v>2136.79005602327</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="U2" t="n">
-        <v>2136.79005602327</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="V2" t="n">
-        <v>2136.79005602327</v>
+        <v>1784.9759692489</v>
       </c>
       <c r="W2" t="n">
-        <v>2136.79005602327</v>
+        <v>1784.9759692489</v>
       </c>
       <c r="X2" t="n">
-        <v>2136.79005602327</v>
+        <v>1395.523364181957</v>
       </c>
       <c r="Y2" t="n">
-        <v>1740.299346943871</v>
+        <v>999.032655102558</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>574.3337716287375</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442689</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>158.7695259828359</v>
       </c>
       <c r="L3" t="n">
-        <v>476.3497876767088</v>
+        <v>642.3356118811491</v>
       </c>
       <c r="M3" t="n">
-        <v>480.0174418653866</v>
+        <v>1155.938290490838</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875479</v>
+        <v>1669.540969100526</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.79650946646</v>
+        <v>1669.540969100526</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182858</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.95143773459</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413232</v>
+        <v>1529.267662492407</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863474</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996761</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467729</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222802</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>536.6226020616494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="C4" t="n">
-        <v>366.4174841276387</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="D4" t="n">
-        <v>231.1998643556801</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="E4" t="n">
-        <v>231.1998643556801</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="F4" t="n">
-        <v>73.87392956865301</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="G4" t="n">
-        <v>73.87392956865301</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H4" t="n">
-        <v>73.87392956865301</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865301</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>583.330228098702</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>307.4825919355142</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="W4" t="n">
-        <v>944.9426819363074</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="X4" t="n">
-        <v>944.9426819363074</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="Y4" t="n">
-        <v>721.8306207529507</v>
+        <v>41.50324675633848</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1384.835618959408</v>
+        <v>1537.649747726262</v>
       </c>
       <c r="C5" t="n">
-        <v>991.6601174623386</v>
+        <v>1332.523728922454</v>
       </c>
       <c r="D5" t="n">
-        <v>873.552853376774</v>
+        <v>1332.523728922454</v>
       </c>
       <c r="E5" t="n">
-        <v>873.552853376774</v>
+        <v>929.940204038998</v>
       </c>
       <c r="F5" t="n">
-        <v>456.6584149067518</v>
+        <v>513.0457655689758</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475497</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475497</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222168</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>895.7983071407457</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="M5" t="n">
-        <v>1434.057092150838</v>
+        <v>1407.408573112018</v>
       </c>
       <c r="N5" t="n">
-        <v>1434.057092150838</v>
+        <v>1921.011251721706</v>
       </c>
       <c r="O5" t="n">
-        <v>1826.595477606226</v>
+        <v>1921.011251721706</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737748</v>
+        <v>1921.011251721706</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737748</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737748</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.782969737748</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="V5" t="n">
-        <v>2174.782969737748</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="W5" t="n">
-        <v>2174.782969737748</v>
+        <v>1537.649747726262</v>
       </c>
       <c r="X5" t="n">
-        <v>1785.330364670805</v>
+        <v>1537.649747726262</v>
       </c>
       <c r="Y5" t="n">
-        <v>1785.330364670805</v>
+        <v>1537.649747726262</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813188</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>405.538555541411</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>303.6197232606942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>303.6197232606942</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>179.187917143826</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442689</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="M6" t="n">
-        <v>1498.174658585115</v>
+        <v>874.8450714282535</v>
       </c>
       <c r="N6" t="n">
-        <v>1940.417878182858</v>
+        <v>921.5731989359472</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182858</v>
+        <v>1435.175877545636</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.95143773459</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413232</v>
+        <v>1529.267662492407</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784299</v>
+        <v>1306.727660863474</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996761</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467729</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222802</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>159.9138828565434</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="C7" t="n">
-        <v>159.9138828565434</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="D7" t="n">
-        <v>159.9138828565434</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="E7" t="n">
-        <v>159.9138828565434</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="F7" t="n">
-        <v>159.9138828565434</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="G7" t="n">
-        <v>159.9138828565434</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H7" t="n">
-        <v>73.87392956865301</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865301</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>709.2236301045415</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="U7" t="n">
-        <v>709.2236301045415</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="V7" t="n">
-        <v>443.2442849253657</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="W7" t="n">
-        <v>159.9138828565434</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="X7" t="n">
-        <v>159.9138828565434</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="Y7" t="n">
-        <v>159.9138828565434</v>
+        <v>218.9763418905753</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1140.655979072374</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="C8" t="n">
-        <v>1140.655979072374</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="D8" t="n">
-        <v>797.412810476668</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="E8" t="n">
-        <v>797.412810476668</v>
+        <v>611.6668769506939</v>
       </c>
       <c r="F8" t="n">
-        <v>380.5183720066457</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,22 +4805,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>173.6308686433316</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>666.9511603618604</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>1937.641433863169</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V8" t="n">
-        <v>1937.641433863169</v>
+        <v>1762.048179625637</v>
       </c>
       <c r="W8" t="n">
-        <v>1937.641433863169</v>
+        <v>1403.703006901093</v>
       </c>
       <c r="X8" t="n">
-        <v>1937.641433863169</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="Y8" t="n">
-        <v>1541.150724783771</v>
+        <v>1014.250401834149</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1436.116207068686</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
-        <v>1725.662044805892</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
         <v>1725.662044805892</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>839.5634350659138</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="C10" t="n">
-        <v>839.5634350659138</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>683.9303219684286</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>528.3715098276311</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>371.0455750406041</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>922.2452207019717</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>922.2452207019717</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>922.2452207019717</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>402.7261067268557</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>402.7261067268557</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1286.720122418849</v>
+        <v>1435.837779556535</v>
       </c>
       <c r="C11" t="n">
-        <v>1025.378848127172</v>
+        <v>1114.45855320566</v>
       </c>
       <c r="D11" t="n">
-        <v>711.7339944900338</v>
+        <v>800.8136995685214</v>
       </c>
       <c r="E11" t="n">
-        <v>380.9467447527721</v>
+        <v>470.0264498312598</v>
       </c>
       <c r="F11" t="n">
-        <v>380.9467447527721</v>
+        <v>470.0264498312598</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527721</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654567</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2827.282650873813</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2556.972116723525</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2257.769356838006</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="X11" t="n">
-        <v>1940.113026917257</v>
+        <v>2087.611459508387</v>
       </c>
       <c r="Y11" t="n">
-        <v>1615.418592984052</v>
+        <v>1764.536250121738</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M12" t="n">
-        <v>1173.45686322911</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2295.043159414291</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>254.6298380530039</v>
+        <v>103.3140520158406</v>
       </c>
       <c r="C13" t="n">
-        <v>156.220995265187</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D13" t="n">
-        <v>156.220995265187</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>156.220995265187</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>70.6913356243538</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
         <v>62.11912770411553</v>
@@ -5233,16 +5233,16 @@
         <v>936.0428256245441</v>
       </c>
       <c r="V13" t="n">
-        <v>741.8597555915621</v>
+        <v>741.8597555915622</v>
       </c>
       <c r="W13" t="n">
-        <v>530.3256286689336</v>
+        <v>530.3256286689337</v>
       </c>
       <c r="X13" t="n">
-        <v>368.0415815981113</v>
+        <v>368.0415815981107</v>
       </c>
       <c r="Y13" t="n">
-        <v>368.0415815981113</v>
+        <v>216.725795560948</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1435.837779556536</v>
+        <v>1463.714265689664</v>
       </c>
       <c r="C14" t="n">
-        <v>1114.45855320566</v>
+        <v>1142.335039338788</v>
       </c>
       <c r="D14" t="n">
-        <v>800.8136995685217</v>
+        <v>828.6901857016492</v>
       </c>
       <c r="E14" t="n">
-        <v>470.02644983126</v>
+        <v>655.7723833572338</v>
       </c>
       <c r="F14" t="n">
-        <v>470.02644983126</v>
+        <v>655.7723833572338</v>
       </c>
       <c r="G14" t="n">
-        <v>128.659969465457</v>
+        <v>314.4059029914309</v>
       </c>
       <c r="H14" t="n">
-        <v>128.659969465457</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5306,22 +5306,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2890.046228280419</v>
+        <v>2859.534777998632</v>
       </c>
       <c r="U14" t="n">
-        <v>2706.089773861212</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2706.089773861212</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2406.887013975693</v>
+        <v>2106.065029543618</v>
       </c>
       <c r="X14" t="n">
-        <v>2089.230684054944</v>
+        <v>1788.408699622869</v>
       </c>
       <c r="Y14" t="n">
-        <v>1764.536250121739</v>
+        <v>1463.714265689664</v>
       </c>
     </row>
     <row r="15">
@@ -5364,16 +5364,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>865.4243596646552</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2009.716291882317</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>347.7456042322052</v>
+        <v>160.5279704919324</v>
       </c>
       <c r="C16" t="n">
-        <v>249.3367614443882</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D16" t="n">
-        <v>165.4999234930967</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E16" t="n">
-        <v>165.4999234930967</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>79.97026385226354</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>79.97026385226354</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>79.97026385226354</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,16 +5437,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027735</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S16" t="n">
-        <v>1444.627927593278</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1280.705150907706</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>1067.062634295801</v>
+        <v>936.0428256245448</v>
       </c>
       <c r="V16" t="n">
-        <v>872.8795642628195</v>
+        <v>741.859755591563</v>
       </c>
       <c r="W16" t="n">
-        <v>661.345437340191</v>
+        <v>530.3256286689345</v>
       </c>
       <c r="X16" t="n">
-        <v>499.061390269368</v>
+        <v>368.0415815981114</v>
       </c>
       <c r="Y16" t="n">
-        <v>347.7456042322052</v>
+        <v>273.9397140370398</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
         <v>1352.560722599516</v>
@@ -5507,7 +5507,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5543,19 +5543,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443166</v>
@@ -5601,16 +5601,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5680,7 +5680,7 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
         <v>806.6193906797589</v>
@@ -5689,34 +5689,34 @@
         <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5780,10 +5780,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573994</v>
@@ -5792,7 +5792,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5832,19 +5832,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>490.2252314250076</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P21" t="n">
         <v>2146.089571124861</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,19 +5911,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>273.0105384364859</v>
+        <v>149.5338114222408</v>
       </c>
       <c r="L22" t="n">
-        <v>437.1381783102858</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485498</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P22" t="n">
         <v>1094.779966106229</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5972,13 +5972,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
         <v>68.7795079292422</v>
@@ -6020,7 +6020,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573994</v>
@@ -6069,22 +6069,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>658.8001958221562</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M24" t="n">
-        <v>1286.571845448837</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N24" t="n">
-        <v>1942.349816659396</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6151,16 +6151,16 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>437.1381783102858</v>
+        <v>313.6614512960402</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485498</v>
+        <v>499.9530296343043</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>683.1426636655135</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296503</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P25" t="n">
         <v>1094.779966106229</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>755.8323718938479</v>
       </c>
       <c r="L26" t="n">
-        <v>1249.152663612378</v>
+        <v>1249.152663612377</v>
       </c>
       <c r="M26" t="n">
-        <v>1888.204925386532</v>
+        <v>1888.204925386531</v>
       </c>
       <c r="N26" t="n">
-        <v>2509.067570753567</v>
+        <v>2509.067570753566</v>
       </c>
       <c r="O26" t="n">
-        <v>3042.158533375469</v>
+        <v>2949.107171645895</v>
       </c>
       <c r="P26" t="n">
-        <v>3390.346025506991</v>
+        <v>3390.34602550699</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>670.0459270655908</v>
       </c>
       <c r="M27" t="n">
-        <v>876.6700909080899</v>
+        <v>1297.817576692272</v>
       </c>
       <c r="N27" t="n">
-        <v>1469.558742615807</v>
+        <v>1953.595547902831</v>
       </c>
       <c r="O27" t="n">
-        <v>1986.079025206788</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P27" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517125</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
         <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286452</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026483</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,22 +6461,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>700.0178648958364</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1286.389518343939</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388519</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2453.253063755555</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377456</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
         <v>3334.531518508978</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6540,19 +6540,19 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1532.448062118649</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985345</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517122</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414155</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878064</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225736</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.050822590411</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
-        <v>1124.291818351193</v>
+        <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
         <v>1380.047947122475</v>
@@ -6643,28 +6643,28 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
-        <v>1411.834951573176</v>
+        <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286443</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988158</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026475</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.382657846367</v>
+        <v>904.3560533993079</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057093</v>
+        <v>601.3807258108109</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.1370811803392</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835518</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>682.8393851136179</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1287.81179740713</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1833.81269745171</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.995428150702</v>
+        <v>2404.684126952457</v>
       </c>
       <c r="O32" t="n">
-        <v>2876.3081217701</v>
+        <v>2844.723727844786</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901622</v>
+        <v>3192.911219976308</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042571</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908496</v>
+        <v>3325.162335939832</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380774</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696898</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131754</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.409263884299</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>500.409263884299</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>1128.18091351098</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965128</v>
+        <v>365.6713676929724</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918665</v>
+        <v>309.3853606404867</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237459</v>
+        <v>267.6713584245266</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123129</v>
+        <v>226.0316571652543</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546505</v>
+        <v>182.6248332597523</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834606</v>
+        <v>128.289890240723</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431915</v>
+        <v>86.73045008374211</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="K34" t="n">
-        <v>245.4092634067517</v>
+        <v>225.4160927170987</v>
       </c>
       <c r="L34" t="n">
-        <v>514.8099960076217</v>
+        <v>389.5437325908985</v>
       </c>
       <c r="M34" t="n">
-        <v>806.3746670729561</v>
+        <v>575.8353109291625</v>
       </c>
       <c r="N34" t="n">
-        <v>1094.837393831235</v>
+        <v>870.6770655353545</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872943</v>
+        <v>1145.033953152045</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376592</v>
+        <v>1264.910118928624</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873658</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.00255738776</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451834</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501594</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250197</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395517</v>
+        <v>835.7257283273691</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000939</v>
+        <v>666.3144371400718</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124416</v>
+        <v>546.1532258045801</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584495</v>
+        <v>436.9602755027486</v>
       </c>
     </row>
     <row r="35">
@@ -6917,25 +6917,25 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K35" t="n">
         <v>565.7512566404055</v>
@@ -6956,13 +6956,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,10 +6971,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7008,28 +7008,28 @@
         <v>199.803798091603</v>
       </c>
       <c r="H36" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J36" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407268</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462922</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="K37" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485496</v>
+        <v>499.9530296343054</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="38">
@@ -7166,7 +7166,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,10 +7208,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M39" t="n">
-        <v>1458.313011372373</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.313011372373</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229885</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>278.5901810446693</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>442.7178209184691</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567331</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879423</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296503</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129445</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L41" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O41" t="n">
         <v>2572.923332933306</v>
@@ -7430,10 +7430,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
         <v>3071.119566829236</v>
@@ -7451,10 +7451,10 @@
         <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="42">
@@ -7494,13 +7494,13 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>596.176270190801</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462918</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7576,43 +7576,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>804.5780233445255</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>967.2827903862335</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975443</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099305</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H44" t="n">
         <v>68.77950792924226</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129437</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
         <v>565.7512566404055</v>
@@ -7658,40 +7658,40 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>2132.883732040979</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
-        <v>2572.923332933307</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064829</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829237</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>199.803798091603</v>
       </c>
       <c r="H45" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
         <v>175.2341099238429</v>
@@ -7734,16 +7734,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885595</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218804</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072676</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
         <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>278.5901810446697</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918807</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161902</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194228</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330089</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984005</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321644</v>
+        <v>668.5156360519582</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920151</v>
       </c>
       <c r="O2" t="n">
-        <v>188.8202997518133</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>213.7176129102076</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,25 +8058,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>93.79016463310104</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>96.09182324999654</v>
+        <v>611.1777065035428</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886037</v>
+        <v>604.1626973083976</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8222,19 +8222,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321644</v>
+        <v>668.5156360519582</v>
       </c>
       <c r="N5" t="n">
-        <v>149.1184913377841</v>
+        <v>667.9090757920151</v>
       </c>
       <c r="O5" t="n">
-        <v>546.0672570760037</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>300.2068661913393</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,25 +8292,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837489</v>
+        <v>611.1777065035428</v>
       </c>
       <c r="N6" t="n">
-        <v>532.0824356801697</v>
+        <v>132.5722416498168</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>611.4781433431199</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8453,7 +8453,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>270.6522400901343</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8465,13 +8465,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>194.0418287534719</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,7 +8529,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8538,13 +8538,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>377.8426560230623</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O9" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8705,7 +8705,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
         <v>331.2113854294513</v>
@@ -8766,28 +8766,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>136.3731801151487</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>173.3576105420024</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9012,19 +9012,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>461.5665676450056</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9249,19 +9249,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>569.9919810238538</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>110.5765941352903</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9480,22 +9480,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>407.7697853345098</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9717,25 +9717,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>125.4991521252098</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,28 +9951,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>684.2495388215578</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>298.485290672186</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>314.1682372053019</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10431,13 +10431,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>187.5973797276333</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10665,13 +10665,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
         <v>85.37211285416666</v>
@@ -10680,7 +10680,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>433.5454285415798</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10832,7 +10832,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N38" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O38" t="n">
         <v>594.0482827698827</v>
@@ -10899,16 +10899,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>691.2645480167034</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
         <v>85.37211285416666</v>
@@ -10917,10 +10917,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>433.5454285415798</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11142,16 +11142,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>192.2856137303845</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>199.9106794075977</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11382,19 +11382,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>59.43757253860599</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.603032301091324</v>
       </c>
     </row>
     <row r="12">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>56.64177929133064</v>
       </c>
       <c r="D13" t="n">
         <v>82.99846957177846</v>
@@ -23425,10 +23425,10 @@
         <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
-        <v>87.00671512578108</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
         <v>82.84545313338901</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>156.2907529189178</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>30.20633577897013</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465758</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681699</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338903</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I16" t="n">
-        <v>43.0125439278944</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>56.64177929133037</v>
       </c>
     </row>
     <row r="17">
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>898203.5595428967</v>
+        <v>897301.2381222562</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>898203.5595428967</v>
+        <v>897301.2381222562</v>
       </c>
     </row>
     <row r="4">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396730.791805385</v>
+        <v>396730.7918053849</v>
       </c>
       <c r="C2" t="n">
         <v>396730.791805385</v>
@@ -26323,37 +26323,37 @@
         <v>350589.8515336813</v>
       </c>
       <c r="F2" t="n">
-        <v>350589.8515336813</v>
+        <v>350589.8515336815</v>
       </c>
       <c r="G2" t="n">
         <v>396730.7918053849</v>
       </c>
       <c r="H2" t="n">
+        <v>396730.7918053849</v>
+      </c>
+      <c r="I2" t="n">
         <v>396730.791805385</v>
-      </c>
-      <c r="I2" t="n">
-        <v>396730.7918053849</v>
       </c>
       <c r="J2" t="n">
         <v>396730.7918053849</v>
       </c>
       <c r="K2" t="n">
-        <v>396730.7918053849</v>
+        <v>396730.7918053848</v>
       </c>
       <c r="L2" t="n">
-        <v>396730.7918053855</v>
+        <v>396730.7918053858</v>
       </c>
       <c r="M2" t="n">
         <v>396730.7918053849</v>
       </c>
       <c r="N2" t="n">
+        <v>396730.7918053849</v>
+      </c>
+      <c r="O2" t="n">
         <v>396730.7918053848</v>
       </c>
-      <c r="O2" t="n">
-        <v>396730.791805385</v>
-      </c>
       <c r="P2" t="n">
-        <v>396730.7918053849</v>
+        <v>396730.7918053848</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062194</v>
+        <v>22558.42953401337</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668192</v>
+        <v>47425.32553668193</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.4717972855</v>
+        <v>62456.24177539667</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962302</v>
+        <v>43252.52447081121</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277115</v>
+        <v>27767.69404277121</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199815.2079190949</v>
+        <v>205625.0607746774</v>
       </c>
       <c r="C4" t="n">
-        <v>199815.2079190949</v>
+        <v>205625.0607746774</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
@@ -26430,7 +26430,7 @@
         <v>112797.3745002078</v>
       </c>
       <c r="G4" t="n">
-        <v>160556.2909917899</v>
+        <v>160556.29099179</v>
       </c>
       <c r="H4" t="n">
         <v>160556.29099179</v>
@@ -26445,7 +26445,7 @@
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>161051.2095556898</v>
+        <v>160917.814946635</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26457,7 +26457,7 @@
         <v>160556.29099179</v>
       </c>
       <c r="P4" t="n">
-        <v>160556.2909917901</v>
+        <v>160556.29099179</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,7 +26482,7 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
@@ -26497,19 +26497,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315424</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551966</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-51973.66554557951</v>
+        <v>-47922.993538165</v>
       </c>
       <c r="C6" t="n">
-        <v>130231.2827462763</v>
+        <v>125935.6634958904</v>
       </c>
       <c r="D6" t="n">
-        <v>123639.2214065538</v>
+        <v>115902.9321831625</v>
       </c>
       <c r="E6" t="n">
-        <v>72483.89585958848</v>
+        <v>72274.16431289889</v>
       </c>
       <c r="F6" t="n">
-        <v>184606.457333633</v>
+        <v>184396.7257869436</v>
       </c>
       <c r="G6" t="n">
-        <v>130579.4059613934</v>
+        <v>130579.4059613933</v>
       </c>
       <c r="H6" t="n">
+        <v>178004.7314980752</v>
+      </c>
+      <c r="I6" t="n">
         <v>178004.7314980753</v>
       </c>
-      <c r="I6" t="n">
-        <v>178004.7314980752</v>
-      </c>
       <c r="J6" t="n">
-        <v>-35037.18609921024</v>
+        <v>-28520.90094463716</v>
       </c>
       <c r="K6" t="n">
         <v>171764.9630952922</v>
       </c>
       <c r="L6" t="n">
-        <v>116582.3741606718</v>
+        <v>112533.5369501999</v>
       </c>
       <c r="M6" t="n">
-        <v>135803.9020384522</v>
+        <v>134752.207027264</v>
       </c>
       <c r="N6" t="n">
-        <v>178004.7314980751</v>
+        <v>178004.7314980752</v>
       </c>
       <c r="O6" t="n">
-        <v>150237.0374553041</v>
+        <v>150237.0374553039</v>
       </c>
       <c r="P6" t="n">
         <v>178004.7314980752</v>
@@ -26695,10 +26695,10 @@
         <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.790584454231</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.790584454231</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,25 +26811,25 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095203</v>
+        <v>844.4391950293141</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014443</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014444</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26917,34 +26917,34 @@
         <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.2816569208524</v>
+        <v>59.28165692085241</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660688</v>
+        <v>78.07030221924583</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0235120155135</v>
+        <v>17.58004954287451</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.790584454231</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506412</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773713</v>
+        <v>659.3622249971648</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407271</v>
+        <v>117.1268713042792</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,19 +27154,19 @@
         <v>71.07831239473194</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.2816569208524</v>
+        <v>59.28165692085241</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.790584454231</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506412</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>326.2122057395763</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -27436,13 +27436,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>216.2496558295332</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>17.95957579094451</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>185.1777423863162</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>20.21133839227139</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>9.495244038962142</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27603,7 +27603,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>186.1689878663284</v>
       </c>
       <c r="D5" t="n">
-        <v>264.66052605079</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27676,10 +27676,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27698,16 +27698,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>27.88843374682479</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>185.1777423863162</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>7.657574321493854</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27789,13 +27789,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>68.74421177310953</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>41.7759805857504</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>12.52732368409619</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>75.25134650297782</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>96.41235525203562</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28065,7 +28065,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28074,7 +28074,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
@@ -28752,43 +28752,43 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N19" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>128.2979821082788</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28983,11 +28983,11 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
+        <v>5.636002634528666</v>
+      </c>
+      <c r="L22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29223,19 +29223,19 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
+        <v>5.636002634528353</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>5.63600263452858</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>86.65052755599442</v>
       </c>
       <c r="L26" t="n">
-        <v>86.65052755599572</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R26" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29533,25 +29533,25 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="K29" t="n">
-        <v>30.272237659013</v>
       </c>
       <c r="L29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>30.27223765901221</v>
+      </c>
+      <c r="P29" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="O29" t="n">
-        <v>93.99127447431646</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>93.99127447431646</v>
@@ -29746,46 +29746,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>86.27291196566512</v>
+        <v>43.49509683160068</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000709</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>94.97643844045277</v>
+        <v>76.79385455031482</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -30028,7 +30028,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="R35" t="n">
         <v>37.61298457733328</v>
@@ -30171,14 +30171,14 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5.636002634529461</v>
+      </c>
+      <c r="N37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30402,17 +30402,17 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668768</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30481,7 +30481,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J41" t="n">
-        <v>9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30648,10 +30648,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N43" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30730,7 +30730,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30876,17 +30876,17 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>35.71049010668813</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
@@ -30900,7 +30900,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344371</v>
+        <v>518.790584454231</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.790584454231</v>
       </c>
       <c r="O2" t="n">
-        <v>39.25646232771692</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>63.41616566928242</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>4.193229299767699</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>3.704701200684619</v>
+        <v>518.790584454231</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344371</v>
+        <v>518.790584454231</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,19 +34942,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344371</v>
+        <v>518.790584454231</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>518.790584454231</v>
       </c>
       <c r="O5" t="n">
-        <v>396.5034196519072</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>155.7081677729471</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344371</v>
+        <v>518.790584454231</v>
       </c>
       <c r="N6" t="n">
-        <v>446.7103228260031</v>
+        <v>47.20012879565017</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>518.790584454231</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>127.5938369108969</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35185,13 +35185,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>44.47799132937547</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35258,13 +35258,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>292.4705431688957</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35425,7 +35425,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
         <v>186.7126870110591</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>51.00106726098203</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>86.27424572268772</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35732,19 +35732,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>374.483202825691</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257285</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
         <v>235.4265619318108</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P17" t="n">
         <v>351.7045375065877</v>
@@ -35969,19 +35969,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>484.6198681696871</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>23.49322931597565</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36048,22 +36048,22 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>5.636002634530013</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>318.1728500011765</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>236.7324157120106</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>213.0216270023944</v>
+        <v>88.29766032133864</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36291,7 +36291,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36437,25 +36437,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>32.81159323632088</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>296.1454641376044</v>
+        <v>171.4214974565483</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36528,10 +36528,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>169.9842521716074</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>449.258967987774</v>
       </c>
       <c r="L26" t="n">
-        <v>584.9538525242067</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
@@ -36607,10 +36607,10 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>598.8774259673912</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>205.7977317832971</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,25 +36829,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>392.8806780907926</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>474.7566830047985</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>221.480678316413</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37069,19 +37069,19 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>475.3883602044895</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>611.0832447409208</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511624</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>619.4156227105763</v>
+        <v>576.6378075765118</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458572</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
@@ -37090,7 +37090,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273765</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,13 +37151,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>102.2252668734666</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>177.6380961272627</v>
+        <v>159.4555122371248</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528629</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>297.8199541476687</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>277.1281693097887</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>116.2366837828624</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110602</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>346.4620637222652</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37467,13 +37467,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873214</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37482,7 +37482,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
         <v>444.4844453457863</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>598.8774259673916</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37637,10 +37637,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>346.4620637222652</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634528606</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683763</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
         <v>362.6084404317796</v>
@@ -37862,16 +37862,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>102.2252668734663</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37944,10 +37944,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683763</v>
       </c>
       <c r="N43" t="n">
-        <v>313.3380164832366</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>7.697989841835579</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449131</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
         <v>444.4844453457863</v>
@@ -38102,19 +38102,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.636002634529066</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683763</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
